--- a/docs/UML.xlsx
+++ b/docs/UML.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\1e Bachelor TI\S2\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\1e Bachelor TI\S2\Project\GitHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Chronologisch" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>ConnectX</t>
   </si>
@@ -127,13 +127,70 @@
   </si>
   <si>
     <t>ConnectXInterface</t>
+  </si>
+  <si>
+    <t>scorePlayer1: int</t>
+  </si>
+  <si>
+    <t>scorePlayer2: int</t>
+  </si>
+  <si>
+    <t>playerAtPlay: int</t>
+  </si>
+  <si>
+    <t>namePlayer1: string</t>
+  </si>
+  <si>
+    <t>namePlayer2: string</t>
+  </si>
+  <si>
+    <t>game: ConnectX</t>
+  </si>
+  <si>
+    <t>ConnectXInterface()</t>
+  </si>
+  <si>
+    <t>newGame(): public void</t>
+  </si>
+  <si>
+    <t>newGame(int players, int rows, int columns): public void</t>
+  </si>
+  <si>
+    <t>newGame(int players, int rows, int columns, int tokenStreak): public void</t>
+  </si>
+  <si>
+    <t>gameRunning(): public bool</t>
+  </si>
+  <si>
+    <t>setScorePlayer(int player): public void</t>
+  </si>
+  <si>
+    <t>getScore(int player): public int</t>
+  </si>
+  <si>
+    <t>setPlayerAtPlay(int playerAtPlay): public void</t>
+  </si>
+  <si>
+    <t>getplayerAtPlay(): public int</t>
+  </si>
+  <si>
+    <t>switchPlayerAtPlay(): public void</t>
+  </si>
+  <si>
+    <t>isCurrentGameWon(): public bool</t>
+  </si>
+  <si>
+    <t>reset(): public void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getToken(int row, int column): </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +206,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,13 +231,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -453,21 +529,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,162 +551,399 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -645,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>

--- a/docs/UML.xlsx
+++ b/docs/UML.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chronologisch" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
-  <si>
-    <t>ConnectX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
     <t>raster: int[,]</t>
   </si>
@@ -48,9 +45,6 @@
     <t>winningPlayer: int</t>
   </si>
   <si>
-    <t xml:space="preserve">ConnectX(): </t>
-  </si>
-  <si>
     <t xml:space="preserve">ConnectX(int rows, int columns): </t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>getToken(int row, int column): public int</t>
   </si>
   <si>
-    <t>ConnectXInterface</t>
-  </si>
-  <si>
     <t>scorePlayer1: int</t>
   </si>
   <si>
@@ -183,14 +174,50 @@
     <t>reset(): public void</t>
   </si>
   <si>
-    <t xml:space="preserve">getToken(int row, int column): </t>
+    <t>setName(int playerNumber, int playerName): public void</t>
+  </si>
+  <si>
+    <t>getName(int player): public string</t>
+  </si>
+  <si>
+    <t>ConnectX()</t>
+  </si>
+  <si>
+    <t>ConnectXInterface.cs</t>
+  </si>
+  <si>
+    <t>Game.cs</t>
+  </si>
+  <si>
+    <t>ConnectX.cs</t>
+  </si>
+  <si>
+    <t>size: float</t>
+  </si>
+  <si>
+    <t>game: ConnextXInterface</t>
+  </si>
+  <si>
+    <t>Game()</t>
+  </si>
+  <si>
+    <t>pnlGame_MouseClick(object sender, MouseEventArgs e): private void</t>
+  </si>
+  <si>
+    <t>drawGrid(): private void</t>
+  </si>
+  <si>
+    <t>btnDrawGrid_Click(object sender, EventArgs e): private void</t>
+  </si>
+  <si>
+    <t>Menu.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,14 +227,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -244,11 +263,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -529,415 +550,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +1114,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -956,274 +1125,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,12 +1713,12 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B34">
-    <sortCondition ref="B1"/>
+  <sortState ref="F2:F9">
+    <sortCondition ref="F2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/UML.xlsx
+++ b/docs/UML.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="98">
   <si>
     <t>raster: int[,]</t>
   </si>
@@ -211,6 +211,114 @@
   </si>
   <si>
     <t>Menu.cs</t>
+  </si>
+  <si>
+    <t>Menu()</t>
+  </si>
+  <si>
+    <t>btnSluiten_Click(object sender, EventArgs e): private void</t>
+  </si>
+  <si>
+    <t>btnPlayCPU_Click(object sender, EventArgs e): private void</t>
+  </si>
+  <si>
+    <t>btnSettings_Click(object sender, EventArgs e): private void</t>
+  </si>
+  <si>
+    <t>Menu_Load(object sender, EventArgs e): private void</t>
+  </si>
+  <si>
+    <t>button1_Click(object sender, EventArgs e): private void</t>
+  </si>
+  <si>
+    <t>ConnectXTester</t>
+  </si>
+  <si>
+    <t>gameWithVerticalWonRasterByPlayer1BeforeControlIfIsWon: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWithVerticalWonRasterByPlayer1AfterContcolIfIpWon: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWithHorizontalWonRasterByPlayer1BeforeControlIfIsWon: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWith45DegreeStartingAtColumn0Row0WonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWith45DegreeStartingAtColumn0Row1WonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWith135DegreeStartingAtColumn0Row0WonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWith135DegreeStartingAtColumnXRow1WonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWithNotWonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWithFullRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>gameWithOneTokenBeforeFullRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>setup(): public void</t>
+  </si>
+  <si>
+    <t>TestGameExists(): public void</t>
+  </si>
+  <si>
+    <t>TestRasterExists(): public void</t>
+  </si>
+  <si>
+    <t>TestIsRasterInitializedWithZeros(): public void</t>
+  </si>
+  <si>
+    <t>TestInsertTokenInRasterAndAssertThatRasterIsNotZero(): public void</t>
+  </si>
+  <si>
+    <t>TestInsertTokenInRasterInFullColumn(): public void</t>
+  </si>
+  <si>
+    <t>TestIsRasterFullWhenRasterIsFull(): public void</t>
+  </si>
+  <si>
+    <t>TestIsRasterFullWhenRasterIsNotFull(): public void</t>
+  </si>
+  <si>
+    <t>TestGivenNotWonGameIfIsNotWonYet(): public void</t>
+  </si>
+  <si>
+    <t>TestGivenVerticalWonGameIfIsWon(): public void</t>
+  </si>
+  <si>
+    <t>TestGivenHorizontalWonGameIfIsWon(): public void</t>
+  </si>
+  <si>
+    <t>TestGiven45DegreeWonGameIfIsWon(): public void</t>
+  </si>
+  <si>
+    <t>TestGiven135DegreeWonGameIfIsWon(): public void</t>
+  </si>
+  <si>
+    <t>TestNewGameWithParameters(): public void</t>
+  </si>
+  <si>
+    <t>TestTurnByAI(): public void</t>
+  </si>
+  <si>
+    <t>TestClearRaster(): public void</t>
+  </si>
+  <si>
+    <t>TestGetWinningPlayerGivenWonGame(): public void</t>
+  </si>
+  <si>
+    <t>TestWhichPlayerPlaysNextTurn(): public void</t>
+  </si>
+  <si>
+    <t>ConnectXTester.cs</t>
   </si>
 </sst>
 </file>
@@ -550,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F9"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,9 +671,11 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -578,8 +688,11 @@
       <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -601,8 +714,17 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -624,8 +746,17 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -647,8 +778,17 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -670,8 +810,17 @@
       <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -693,8 +842,17 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -716,8 +874,17 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -739,8 +906,14 @@
       <c r="G8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -762,8 +935,14 @@
       <c r="G9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -782,8 +961,14 @@
       <c r="G10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -802,8 +987,14 @@
       <c r="G11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -822,8 +1013,14 @@
       <c r="G12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -842,8 +1039,14 @@
       <c r="G13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -862,8 +1065,14 @@
       <c r="G14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -882,8 +1091,14 @@
       <c r="G15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -902,8 +1117,14 @@
       <c r="G16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -922,8 +1143,14 @@
       <c r="G17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -942,8 +1169,14 @@
       <c r="G18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -959,8 +1192,17 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -976,8 +1218,17 @@
       <c r="E20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -993,8 +1244,17 @@
       <c r="E21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1010,8 +1270,17 @@
       <c r="E22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1024,8 +1293,17 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1038,8 +1316,17 @@
       <c r="D24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1052,48 +1339,87 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1101,7 +1427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1125,11 +1451,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,9 +1464,11 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1153,8 +1481,11 @@
       <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1176,8 +1507,17 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1199,8 +1539,17 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1222,8 +1571,17 @@
       <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1245,8 +1603,17 @@
       <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1268,8 +1635,17 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1291,8 +1667,17 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1314,8 +1699,14 @@
       <c r="G8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1337,8 +1728,14 @@
       <c r="G9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1357,8 +1754,14 @@
       <c r="G10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1377,8 +1780,14 @@
       <c r="G11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1397,8 +1806,14 @@
       <c r="G12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1417,8 +1832,14 @@
       <c r="G13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1437,8 +1858,14 @@
       <c r="G14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1457,8 +1884,14 @@
       <c r="G15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1477,8 +1910,14 @@
       <c r="G16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1497,8 +1936,14 @@
       <c r="G17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1517,8 +1962,14 @@
       <c r="G18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1537,8 +1988,14 @@
       <c r="G19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1557,8 +2014,14 @@
       <c r="G20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1577,8 +2040,14 @@
       <c r="G21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1597,8 +2066,14 @@
       <c r="G22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1617,8 +2092,14 @@
       <c r="G23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1634,8 +2115,14 @@
       <c r="G24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1651,48 +2138,84 @@
       <c r="G25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1700,7 +2223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1717,8 +2240,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="F2:F9">
-    <sortCondition ref="F2"/>
+  <sortState ref="J2:J30">
+    <sortCondition ref="J2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/UML.xlsx
+++ b/docs/UML.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Chronologisch" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
   <si>
     <t>raster: int[,]</t>
   </si>
@@ -319,6 +319,39 @@
   </si>
   <si>
     <t>ConnectXTester.cs</t>
+  </si>
+  <si>
+    <t>gameWithout45Degree: ConnectX</t>
+  </si>
+  <si>
+    <t>getCurrentGameWonPlayer(): public int</t>
+  </si>
+  <si>
+    <t>getOverallWonPlayer(): public int</t>
+  </si>
+  <si>
+    <t>isRasterFull(): public bool</t>
+  </si>
+  <si>
+    <t>incrementScorePlayer(int player): public void</t>
+  </si>
+  <si>
+    <t>gr: Graphis</t>
+  </si>
+  <si>
+    <t>myPen: Pen</t>
+  </si>
+  <si>
+    <t>myFont: Font</t>
+  </si>
+  <si>
+    <t>updateScores(): private void</t>
+  </si>
+  <si>
+    <t>newSession(): private void</t>
+  </si>
+  <si>
+    <t>showDialog(string tekst, string caption): private string</t>
   </si>
 </sst>
 </file>
@@ -660,9 +693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J30"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,10 +834,10 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G5">
@@ -837,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -869,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -901,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -930,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -958,6 +991,9 @@
       <c r="E10">
         <v>9</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G10">
         <v>9</v>
       </c>
@@ -984,6 +1020,9 @@
       <c r="E11">
         <v>10</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G11">
         <v>10</v>
       </c>
@@ -1010,6 +1049,9 @@
       <c r="E12">
         <v>11</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="G12">
         <v>11</v>
       </c>
@@ -1031,11 +1073,14 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="G13">
         <v>12</v>
       </c>
@@ -1043,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1062,6 +1107,9 @@
       <c r="E14">
         <v>13</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G14">
         <v>13</v>
       </c>
@@ -1069,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1083,11 +1131,14 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
+      <c r="F15" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="G15">
         <v>14</v>
       </c>
@@ -1095,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1109,11 +1160,14 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="G16">
         <v>15</v>
       </c>
@@ -1121,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1135,11 +1189,14 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="G17">
         <v>16</v>
       </c>
@@ -1147,7 +1204,7 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1161,7 +1218,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1173,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1187,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1199,7 +1256,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1213,7 +1270,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1225,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1239,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1251,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1265,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1277,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1291,7 +1348,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>22</v>
@@ -1300,7 +1357,7 @@
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1314,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1323,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1337,7 +1394,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -1346,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1356,11 +1413,14 @@
       <c r="B26" t="s">
         <v>23</v>
       </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1370,11 +1430,14 @@
       <c r="B27" t="s">
         <v>24</v>
       </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1384,11 +1447,14 @@
       <c r="B28" t="s">
         <v>25</v>
       </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1396,13 +1462,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1416,7 +1482,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1425,6 +1491,9 @@
       </c>
       <c r="B31" t="s">
         <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1453,9 +1522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/UML.xlsx
+++ b/docs/UML.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="172">
   <si>
     <t>raster: int[,]</t>
   </si>
@@ -231,9 +231,6 @@
     <t>button1_Click(object sender, EventArgs e): private void</t>
   </si>
   <si>
-    <t>ConnectXTester</t>
-  </si>
-  <si>
     <t>gameWithVerticalWonRasterByPlayer1BeforeControlIfIsWon: ConnectX</t>
   </si>
   <si>
@@ -352,6 +349,198 @@
   </si>
   <si>
     <t>showDialog(string tekst, string caption): private string</t>
+  </si>
+  <si>
+    <t>defaultRows: static int</t>
+  </si>
+  <si>
+    <t>defaultColumns: static int</t>
+  </si>
+  <si>
+    <t>defaultStreak: static int</t>
+  </si>
+  <si>
+    <t>GetDefaultNumberOfRows(): static int</t>
+  </si>
+  <si>
+    <t>GetDefaultNumberOfColumns(): static int</t>
+  </si>
+  <si>
+    <t>GetDefaultStreak(): static int</t>
+  </si>
+  <si>
+    <t>getRowIndexOfLowestEmptyTokenInColumn(int column): int</t>
+  </si>
+  <si>
+    <t>switchPlayerAtTurn(): void</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>streak</t>
+  </si>
+  <si>
+    <t>ConnectXInterface(int rows, int columns)</t>
+  </si>
+  <si>
+    <t>ConnectXInterface(int rows, int columns, int streak)</t>
+  </si>
+  <si>
+    <t>game10Rows14Columns: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14Columns6Streak: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWithVerticalWonRasterByPlayer1BeforeControlIfIsWon: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWithVerticalWonRasterByPlayer1AfterContcolIfIpWon: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWithHorizontalWonRasterByPlayer1BeforeControlIfIsWon: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWith45DegreeStartingAtColumn0Row0WonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWith45DegreeStartingAtColumn0Row1WonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWithout45Degree: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWith135DegreeStartingAtColumn0Row0WonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWith135DegreeStartingAtColumnXRow1WonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWithNotWonRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWithFullRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>game10Rows14ColumnsWithOneTokenBeforeFullRaster: ConnectX</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsInsertTokenInRasterAndAssertThatRasterIsNotZero(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsIsRasterInitializedWithZeros(): public void</t>
+  </si>
+  <si>
+    <t>TestGame10Rows14ColumnsGetRowsColumnsAndStreak(): public void</t>
+  </si>
+  <si>
+    <t>TestGame10Rows14Columns6StreakGetRowsColumnsAndStreak(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsInsertTokenInRasterInFullColumn(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsIsRasterFullWhenRasterIsFull(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsIsRasterFullWhenRasterIsNotFull(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsGivenNotWonGameIfIsNotWonYet(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsGivenVerticalWonGameIfIsWon(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsGivenHorizontalWonGameIfIsWon(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsGiven45DegreeWonGameIfIsWon(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsGiven135DegreeWonGameIfIsWon(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsTurnByAI(): public void</t>
+  </si>
+  <si>
+    <t>Test10Rows14ColumnsClearRaster(): public void</t>
+  </si>
+  <si>
+    <t>gameInterface: ConnectXInterface</t>
+  </si>
+  <si>
+    <t>gameInterface10Rows14Columns: ConnectXInterface</t>
+  </si>
+  <si>
+    <t>gameInterface10Rows14Columns5Streak: ConnectXInterface</t>
+  </si>
+  <si>
+    <t>TestNewGameStarted(): public void</t>
+  </si>
+  <si>
+    <t>TestGetScorePlayer1(): public void</t>
+  </si>
+  <si>
+    <t>TestGetOverallWonPlayer: public void</t>
+  </si>
+  <si>
+    <t>TestNewGameWith10Rows14ColumnsAnd5Streak(): public void</t>
+  </si>
+  <si>
+    <t>TestNewGame2HumanPlayersWith10RowsAnd14Columns(): public void</t>
+  </si>
+  <si>
+    <t>TestNewGameWith10RowsAnd14Columns(): public void</t>
+  </si>
+  <si>
+    <t>TestResetGame(): public void</t>
+  </si>
+  <si>
+    <t>TestCurrentGameWon(): public void</t>
+  </si>
+  <si>
+    <t>TestGetPlayerAtPlay(): public void</t>
+  </si>
+  <si>
+    <t>TestInsertTokenInColumn2ByPlayer1(): public void</t>
+  </si>
+  <si>
+    <t>ConnectXSlicesTester.cs</t>
+  </si>
+  <si>
+    <t>ConnectXInterfaceTester.cs</t>
+  </si>
+  <si>
+    <t>TestSlice1_1AskNames(): public void</t>
+  </si>
+  <si>
+    <t>TestSlice1_2StartGame(): public void</t>
+  </si>
+  <si>
+    <t>TestSlice2_1CheckIfColumnIsNotFull(): public void</t>
+  </si>
+  <si>
+    <t>TestSlice2_2SelectColumnAndInsertToken(): public void</t>
+  </si>
+  <si>
+    <t>TestSlice2_3CheckIfGameIsWon(): public void</t>
+  </si>
+  <si>
+    <t>TestSlice2_4IncrementScoreWinningPlayer(): public void</t>
+  </si>
+  <si>
+    <t>TestSlice2_5AskForNewGame(): public void</t>
+  </si>
+  <si>
+    <t>TestSlice2_6PlayNewGame(): public void</t>
+  </si>
+  <si>
+    <t>TestSlice3_1ShowWinner(): public void</t>
   </si>
 </sst>
 </file>
@@ -404,13 +593,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -691,24 +881,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -722,10 +914,16 @@
         <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -756,8 +954,20 @@
       <c r="J2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -786,10 +996,22 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -800,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -818,10 +1040,22 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -832,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -850,10 +1084,22 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -863,14 +1109,14 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
+      <c r="D6" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -882,27 +1128,39 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+        <v>69</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
+      <c r="D7" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -914,27 +1172,39 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
+      <c r="B8" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
+      <c r="D8" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -943,21 +1213,33 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -972,21 +1254,33 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1001,21 +1295,33 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1030,27 +1336,39 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1059,27 +1377,39 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1088,27 +1418,33 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1117,21 +1453,27 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1146,21 +1488,27 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1175,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1183,13 +1531,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1204,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,13 +1560,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1230,7 +1578,7 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1238,13 +1586,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1256,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1264,13 +1612,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1282,7 +1630,7 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1290,13 +1638,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1308,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,13 +1664,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1334,7 +1682,7 @@
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,13 +1690,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>22</v>
@@ -1357,7 +1705,7 @@
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1365,13 +1713,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1380,7 +1728,7 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1388,13 +1736,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -1403,7 +1751,7 @@
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1411,16 +1759,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1428,16 +1779,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1445,16 +1799,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,13 +1819,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1476,13 +1839,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>114</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1490,10 +1859,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>115</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1501,15 +1873,269 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37">
+        <v>36</v>
+      </c>
+      <c r="J37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>30</v>
+      </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>46</v>
+      </c>
+      <c r="J47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>48</v>
+      </c>
+      <c r="J49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>49</v>
+      </c>
+      <c r="J50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>51</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>52</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>53</v>
+      </c>
+      <c r="J54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>54</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>55</v>
+      </c>
+      <c r="J56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>56</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +2177,7 @@
         <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1615,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1647,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1679,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1711,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1743,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1772,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1801,7 +2427,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1827,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1853,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1879,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1905,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +2557,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1957,7 +2583,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1983,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2035,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2061,7 +2687,7 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2087,7 +2713,7 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2113,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2139,7 +2765,7 @@
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2165,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,7 +2814,7 @@
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2211,7 +2837,7 @@
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2225,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2239,7 +2865,7 @@
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2253,7 +2879,7 @@
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2267,7 +2893,7 @@
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2281,7 +2907,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">

--- a/docs/UML.xlsx
+++ b/docs/UML.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="171">
   <si>
     <t>raster: int[,]</t>
   </si>
@@ -496,9 +496,6 @@
   </si>
   <si>
     <t>TestNewGameWith10RowsAnd14Columns(): public void</t>
-  </si>
-  <si>
-    <t>TestResetGame(): public void</t>
   </si>
   <si>
     <t>TestCurrentGameWon(): public void</t>
@@ -883,9 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,10 +914,10 @@
         <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1052,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1096,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1140,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1184,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1225,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1266,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1307,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1348,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1389,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1489,12 +1486,6 @@
       </c>
       <c r="J15" t="s">
         <v>127</v>
-      </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
